--- a/3.results/model_selection/petit_puffin_R_4_add_spatial_effects.xlsx
+++ b/3.results/model_selection/petit_puffin_R_4_add_spatial_effects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">...1</t>
   </si>
@@ -68,34 +68,16 @@
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_concavity</t>
-  </si>
-  <si>
     <t xml:space="preserve">beta_mean_CHL</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_concavity</t>
+    <t xml:space="preserve">beta_mean_SSH</t>
   </si>
   <si>
     <t xml:space="preserve">sd_beta_mean_CHL</t>
   </si>
   <si>
-    <t xml:space="preserve">sd_beta_sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_sd_VEL</t>
+    <t xml:space="preserve">sd_beta_mean_SSH</t>
   </si>
   <si>
     <t xml:space="preserve">without spatial</t>
@@ -535,132 +517,96 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.049</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>202.4</v>
+        <v>164.1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2277</v>
+        <v>2290</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.68</v>
+        <v>1.48</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>-1.09</v>
+        <v>0.83</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1.26</v>
+        <v>0.72</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.197</v>
+        <v>2.09</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>20.9</v>
+        <v>42.6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0.03</v>
@@ -669,233 +615,179 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>2275</v>
+        <v>2283</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>318</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.84</v>
+        <v>1.43</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-1.25</v>
+        <v>0.96</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1.22</v>
+        <v>0.7</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.155</v>
+        <v>2.13</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>30.8</v>
+        <v>50.3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>2277</v>
+        <v>2289</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.81</v>
+        <v>1.53</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>-1.25</v>
+        <v>0.93</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Y4" s="1" t="n">
         <v>0.48</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>0.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>20.404</v>
+        <v>6.807</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>8.7</v>
+        <v>10.2</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.51</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="J5" s="1" t="n">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>2278</v>
+        <v>2287</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>737</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.74</v>
+        <v>1.45</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-1.21</v>
+        <v>0.87</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y5" s="1" t="n">
         <v>0.49</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +837,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;1244</formula>
+      <formula>J2&lt;1250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -958,7 +850,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;313</formula>
+      <formula>K2&lt;316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -971,7 +863,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;733</formula>
+      <formula>L2&lt;726</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -984,7 +876,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;2280</formula>
+      <formula>M2&lt;2286</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -997,7 +889,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;1247</formula>
+      <formula>N2&lt;1250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -1010,7 +902,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;323</formula>
+      <formula>O2&lt;321</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -1023,7 +915,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;737</formula>
+      <formula>P2&lt;732</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -1036,7 +928,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;2297</formula>
+      <formula>Q2&lt;2299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
